--- a/aula_07-07/BREAKPOINTS.xlsx
+++ b/aula_07-07/BREAKPOINTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIC\Desktop\bootstrap\aula_07-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF529C1-1EEC-416E-A901-9C0B78F3F83E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF289B2-31C2-447A-96BF-F36BE1D0D748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="11280" xr2:uid="{6EE6B5E5-FA7C-4715-A17D-3318EB676656}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>BREAKPOINTS</t>
   </si>
@@ -235,6 +235,12 @@
       </rPr>
       <t>-CENTER</t>
     </r>
+  </si>
+  <si>
+    <t>tex-center</t>
+  </si>
+  <si>
+    <t>text-start</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5547FE2-B740-4246-A757-A24C0ED30F3B}">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,9 +680,11 @@
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -709,8 +717,14 @@
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -725,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -740,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -755,7 +769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -770,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
